--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_40.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_1_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3814873.716231919</v>
+        <v>3814358.086617562</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>826053.9034197847</v>
+        <v>826053.9034197844</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6227906.870320171</v>
+        <v>6227906.870320172</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>228.7314423684853</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>50.92496340568142</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
         <v>9.031127956876844</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,16 +712,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>65.26714590251326</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>165.1431669780072</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>323.9252756929415</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>412.725494085322</v>
@@ -913,7 +913,7 @@
         <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>144.2676545866447</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -1113,16 +1113,16 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>129.2405072294739</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X7" t="n">
-        <v>144.8481997245093</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>40.46797871162939</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>38.1842205370595</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,10 +1186,10 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
-        <v>205.6112693997076</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>145.6238767107354</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>302.4985237799665</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>295.2524720077822</v>
@@ -1378,16 +1378,16 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E11" t="n">
-        <v>304.5664151603045</v>
+        <v>61.53451632125245</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>318.7342196110055</v>
       </c>
       <c r="G11" t="n">
         <v>315.0398534825604</v>
       </c>
       <c r="H11" t="n">
-        <v>0.05474244684474939</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I11" t="n">
         <v>42.96247126414337</v>
@@ -1548,7 +1548,7 @@
         <v>59.93249105380451</v>
       </c>
       <c r="I13" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C14" t="n">
         <v>295.2524720077822</v>
@@ -1615,7 +1615,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E14" t="n">
-        <v>259.1847082032228</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F14" t="n">
         <v>318.7342196110055</v>
@@ -1624,10 +1624,10 @@
         <v>315.0398534825604</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>226.8509454548578</v>
       </c>
       <c r="I14" t="n">
-        <v>42.96247126414336</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>127.274321941861</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>159.2039277954309</v>
+        <v>146.3342479584171</v>
       </c>
       <c r="V14" t="n">
         <v>244.6944667292003</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X14" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="15">
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C16" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D16" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E16" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F16" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G16" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H16" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I16" t="n">
-        <v>37.77220663497641</v>
+        <v>37.77220663497643</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S16" t="n">
         <v>106.7966485049597</v>
@@ -1824,13 +1824,13 @@
         <v>188.5931293662016</v>
       </c>
       <c r="V16" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W16" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X16" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y16" t="n">
         <v>126.8896660972066</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386989</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277472</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U17" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V17" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y17" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U19" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="20">
@@ -2080,28 +2080,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C20" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D20" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E20" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F20" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H20" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.4884501927755</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059243</v>
       </c>
       <c r="U20" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V20" t="n">
-        <v>208.3257718879329</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2238,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H22" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U22" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W22" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="23">
@@ -2317,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>266.1298289386984</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C23" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D23" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E23" t="n">
-        <v>268.1977203190364</v>
+        <v>268.1977203190365</v>
       </c>
       <c r="F23" t="n">
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412924</v>
+        <v>278.6711586412925</v>
       </c>
       <c r="H23" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875379</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2371,22 +2371,22 @@
         <v>34.48845019277517</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059305</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U23" t="n">
-        <v>122.8352329541629</v>
+        <v>122.835232954163</v>
       </c>
       <c r="V23" t="n">
-        <v>208.3257718879323</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.929075365811</v>
+        <v>236.9290753658111</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006893</v>
+        <v>255.1981097006894</v>
       </c>
       <c r="Y23" t="n">
-        <v>262.1658326730204</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="24">
@@ -2475,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880383</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908623</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092596</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380507</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357234</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596447</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H25" t="n">
-        <v>23.56379621253652</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708446</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2526,25 +2526,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369168</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978638</v>
+        <v>103.0018919978639</v>
       </c>
       <c r="U25" t="n">
-        <v>152.2244345249336</v>
+        <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117996</v>
+        <v>132.9595824117997</v>
       </c>
       <c r="W25" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792623</v>
+        <v>101.3795496792624</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593863</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="26">
@@ -2563,13 +2563,13 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
       </c>
       <c r="G26" t="n">
-        <v>315.0398534825604</v>
+        <v>10.60336910358985</v>
       </c>
       <c r="H26" t="n">
         <v>226.8509454548578</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -2623,7 +2623,7 @@
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>227.8073132615789</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="27">
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
-        <v>188.5931293662022</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V28" t="n">
         <v>169.3282772530675</v>
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>302.4985237799665</v>
+        <v>55.50262867523697</v>
       </c>
       <c r="C29" t="n">
-        <v>285.983320659921</v>
+        <v>295.2524720077822</v>
       </c>
       <c r="D29" t="n">
         <v>287.5954430211825</v>
       </c>
       <c r="E29" t="n">
-        <v>304.5664151603045</v>
+        <v>304.5664151603044</v>
       </c>
       <c r="F29" t="n">
         <v>318.7342196110055</v>
@@ -2812,7 +2812,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414337</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.8571450340435</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2851,16 +2851,16 @@
         <v>159.2039277954309</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>244.6944667292003</v>
       </c>
       <c r="W29" t="n">
-        <v>273.297770207079</v>
+        <v>273.2977702070789</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y29" t="n">
-        <v>298.5345275142885</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2949,28 +2949,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007182</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035423</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219395</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507307</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484033</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723247</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H31" t="n">
-        <v>59.93249105380451</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943236</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
-        <v>188.5931293662016</v>
+        <v>188.5931293662015</v>
       </c>
       <c r="V31" t="n">
-        <v>169.3282772530676</v>
+        <v>169.3282772530675</v>
       </c>
       <c r="W31" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X31" t="n">
-        <v>137.7482445205303</v>
+        <v>137.7482445205302</v>
       </c>
       <c r="Y31" t="n">
         <v>126.8896660972066</v>
@@ -3049,7 +3049,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I32" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875392</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>255.1981097006893</v>
       </c>
       <c r="Y32" t="n">
-        <v>262.1658326730206</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="33">
@@ -3322,7 +3322,7 @@
         <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
-        <v>122.835232954163</v>
+        <v>122.8352329541626</v>
       </c>
       <c r="V35" t="n">
         <v>208.3257718879324</v>
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>266.1298289386986</v>
+        <v>266.1298289386985</v>
       </c>
       <c r="C38" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D38" t="n">
-        <v>251.2267481799146</v>
+        <v>251.2267481799145</v>
       </c>
       <c r="E38" t="n">
         <v>268.1977203190365</v>
@@ -3520,10 +3520,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H38" t="n">
-        <v>190.4822506135899</v>
+        <v>190.4822506135898</v>
       </c>
       <c r="I38" t="n">
-        <v>6.593776422875436</v>
+        <v>6.593776422875408</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>34.48845019277556</v>
+        <v>34.48845019277553</v>
       </c>
       <c r="T38" t="n">
-        <v>90.90562710059311</v>
+        <v>90.90562710059308</v>
       </c>
       <c r="U38" t="n">
         <v>122.835232954163</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.99596918880388</v>
+        <v>52.99596918880385</v>
       </c>
       <c r="C40" t="n">
-        <v>38.14309743908629</v>
+        <v>38.14309743908626</v>
       </c>
       <c r="D40" t="n">
-        <v>23.71681265092602</v>
+        <v>23.71681265092599</v>
       </c>
       <c r="E40" t="n">
-        <v>23.64325470380513</v>
+        <v>23.6432547038051</v>
       </c>
       <c r="F40" t="n">
-        <v>25.3927061235724</v>
+        <v>25.39270612357237</v>
       </c>
       <c r="G40" t="n">
-        <v>36.21154404596453</v>
+        <v>36.2115440459645</v>
       </c>
       <c r="H40" t="n">
-        <v>23.56379621253657</v>
+        <v>23.56379621253654</v>
       </c>
       <c r="I40" t="n">
-        <v>1.403511793708503</v>
+        <v>1.403511793708475</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>70.42795366369174</v>
+        <v>70.42795366369171</v>
       </c>
       <c r="T40" t="n">
         <v>103.0018919978638</v>
@@ -3723,13 +3723,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W40" t="n">
-        <v>150.1371287325498</v>
+        <v>150.1371287325497</v>
       </c>
       <c r="X40" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y40" t="n">
-        <v>90.52097125593869</v>
+        <v>90.52097125593866</v>
       </c>
     </row>
     <row r="41">
@@ -3742,7 +3742,7 @@
         <v>322.2802739911201</v>
       </c>
       <c r="C41" t="n">
-        <v>315.0342222189359</v>
+        <v>315.0342222189358</v>
       </c>
       <c r="D41" t="n">
         <v>307.3771932323361</v>
@@ -3751,16 +3751,16 @@
         <v>324.3481653714581</v>
       </c>
       <c r="F41" t="n">
-        <v>338.5159698221592</v>
+        <v>338.5159698221591</v>
       </c>
       <c r="G41" t="n">
-        <v>334.8216036937141</v>
+        <v>334.821603693714</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>148.2771037001347</v>
       </c>
       <c r="I41" t="n">
-        <v>62.74422147529704</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>90.63889524519716</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>147.0560721530147</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>178.9856780065846</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>273.2803119913847</v>
+        <v>293.0795204182326</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y41" t="n">
         <v>318.3162777254421</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>109.1464142412255</v>
+        <v>109.1464142412254</v>
       </c>
       <c r="C43" t="n">
-        <v>94.29354249150789</v>
+        <v>94.29354249150785</v>
       </c>
       <c r="D43" t="n">
-        <v>79.86725770334762</v>
+        <v>79.86725770334758</v>
       </c>
       <c r="E43" t="n">
-        <v>79.79369975622673</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>81.543151175994</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>92.36198909838613</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>79.71424126495818</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>57.55395684613011</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>48.45245521058602</v>
+        <v>48.45245521058598</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>45.9326864237368</v>
       </c>
       <c r="T43" t="n">
         <v>159.1523370502854</v>
       </c>
       <c r="U43" t="n">
-        <v>208.3748795773553</v>
+        <v>208.3748795773552</v>
       </c>
       <c r="V43" t="n">
         <v>189.1100274642212</v>
       </c>
       <c r="W43" t="n">
-        <v>7.924638375372417</v>
+        <v>206.2875737849713</v>
       </c>
       <c r="X43" t="n">
         <v>157.5299947316839</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>146.6714163083603</v>
       </c>
     </row>
     <row r="44">
@@ -3976,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>322.2802739911201</v>
       </c>
       <c r="C44" t="n">
-        <v>197.0452704220398</v>
+        <v>315.0342222189358</v>
       </c>
       <c r="D44" t="n">
         <v>307.3771932323361</v>
@@ -3988,16 +3988,16 @@
         <v>324.3481653714581</v>
       </c>
       <c r="F44" t="n">
-        <v>338.5159698221592</v>
+        <v>222.3168565819396</v>
       </c>
       <c r="G44" t="n">
-        <v>334.8216036937141</v>
+        <v>334.821603693714</v>
       </c>
       <c r="H44" t="n">
-        <v>246.6326956660114</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>62.74422147529704</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,10 +4030,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>147.0560721530147</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>178.9856780065846</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>264.476216940354</v>
@@ -4042,7 +4042,7 @@
         <v>293.0795204182326</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>311.3485547531109</v>
       </c>
       <c r="Y44" t="n">
         <v>318.3162777254421</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>109.1464142412254</v>
       </c>
       <c r="C46" t="n">
-        <v>94.29354249150789</v>
+        <v>94.29354249150785</v>
       </c>
       <c r="D46" t="n">
-        <v>79.86725770334762</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>79.79369975622673</v>
+        <v>79.79369975622669</v>
       </c>
       <c r="F46" t="n">
-        <v>81.543151175994</v>
+        <v>81.54315117599396</v>
       </c>
       <c r="G46" t="n">
-        <v>92.36198909838613</v>
+        <v>92.36198909838609</v>
       </c>
       <c r="H46" t="n">
-        <v>79.00327295828544</v>
+        <v>79.71424126495813</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,28 +4182,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>48.45245521058602</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>126.5783987161133</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>159.1523370502854</v>
       </c>
       <c r="U46" t="n">
-        <v>208.3748795773553</v>
+        <v>208.3748795773552</v>
       </c>
       <c r="V46" t="n">
-        <v>189.1100274642212</v>
+        <v>187.4793402380105</v>
       </c>
       <c r="W46" t="n">
-        <v>206.2875737849714</v>
+        <v>206.2875737849713</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>146.6714163083603</v>
       </c>
     </row>
   </sheetData>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1166.791788362471</v>
+        <v>513.9042144752598</v>
       </c>
       <c r="C2" t="n">
-        <v>935.7499273842031</v>
+        <v>120.7287129781903</v>
       </c>
       <c r="D2" t="n">
-        <v>935.7499273842031</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="E2" t="n">
-        <v>935.7499273842031</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F2" t="n">
-        <v>518.8554889141809</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H2" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I2" t="n">
         <v>47.31297010154361</v>
@@ -4339,13 +4339,13 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>1489.649729308197</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N2" t="n">
-        <v>2017.461012945658</v>
+        <v>1925.608904184852</v>
       </c>
       <c r="O2" t="n">
-        <v>2017.461012945658</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P2" t="n">
         <v>2365.64850507718</v>
@@ -4360,22 +4360,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T2" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U2" t="n">
-        <v>1905.389306738351</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V2" t="n">
-        <v>1563.28249744187</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W2" t="n">
-        <v>1563.28249744187</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="X2" t="n">
-        <v>1563.28249744187</v>
+        <v>1310.889669266056</v>
       </c>
       <c r="Y2" t="n">
-        <v>1166.791788362471</v>
+        <v>914.3989601866567</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="M3" t="n">
-        <v>1374.529131354181</v>
+        <v>1065.6651033901</v>
       </c>
       <c r="N3" t="n">
-        <v>1960.027136360783</v>
+        <v>1651.163108396702</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
         <v>2365.64850507718</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>77.69124027544166</v>
+        <v>350.6125133984765</v>
       </c>
       <c r="C4" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="D4" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="E4" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="F4" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="G4" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="H4" t="n">
-        <v>77.69124027544166</v>
+        <v>180.4073954644657</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544166</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
         <v>47.31297010154361</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>713.0409408113302</v>
+        <v>758.9325932731344</v>
       </c>
       <c r="U4" t="n">
-        <v>713.0409408113302</v>
+        <v>758.9325932731344</v>
       </c>
       <c r="V4" t="n">
-        <v>713.0409408113302</v>
+        <v>758.9325932731344</v>
       </c>
       <c r="W4" t="n">
-        <v>429.7105387425078</v>
+        <v>758.9325932731344</v>
       </c>
       <c r="X4" t="n">
-        <v>429.7105387425078</v>
+        <v>758.9325932731344</v>
       </c>
       <c r="Y4" t="n">
-        <v>262.8992589667429</v>
+        <v>535.8205320897778</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1593.171836857193</v>
+        <v>1251.94639032356</v>
       </c>
       <c r="C5" t="n">
-        <v>1199.996335360124</v>
+        <v>858.7708888264908</v>
       </c>
       <c r="D5" t="n">
-        <v>1199.996335360124</v>
+        <v>473.3297600431586</v>
       </c>
       <c r="E5" t="n">
-        <v>797.412810476668</v>
+        <v>473.3297600431586</v>
       </c>
       <c r="F5" t="n">
-        <v>380.5183720066457</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G5" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
         <v>47.31297010154361</v>
@@ -4576,10 +4576,10 @@
         <v>1044.265390756362</v>
       </c>
       <c r="M5" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N5" t="n">
-        <v>1925.608904184852</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O5" t="n">
         <v>2365.64850507718</v>
@@ -4594,25 +4594,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S5" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T5" t="n">
-        <v>2365.64850507718</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U5" t="n">
-        <v>2109.895775511779</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V5" t="n">
-        <v>1964.170871888906</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W5" t="n">
-        <v>1593.171836857193</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X5" t="n">
-        <v>1593.171836857193</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y5" t="n">
-        <v>1593.171836857193</v>
+        <v>1579.143638498249</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C6" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D6" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E6" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F6" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G6" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154361</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K6" t="n">
-        <v>194.5661265746808</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L6" t="n">
-        <v>678.1322124729941</v>
+        <v>554.6660347926879</v>
       </c>
       <c r="M6" t="n">
-        <v>1263.630217479596</v>
+        <v>1140.16403979929</v>
       </c>
       <c r="N6" t="n">
-        <v>1849.128222486198</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="O6" t="n">
-        <v>2365.648505077179</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q6" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R6" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S6" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T6" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U6" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V6" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W6" t="n">
         <v>1367.096582257017</v>
@@ -4691,7 +4691,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y6" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="7">
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>536.4693346108807</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C7" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D7" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E7" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F7" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G7" t="n">
-        <v>366.2642166768698</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H7" t="n">
-        <v>210.7856656383638</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I7" t="n">
         <v>77.69124027544166</v>
@@ -4761,16 +4761,16 @@
         <v>948.7599926430961</v>
       </c>
       <c r="V7" t="n">
-        <v>682.7806474639203</v>
+        <v>818.2140257446376</v>
       </c>
       <c r="W7" t="n">
-        <v>682.7806474639203</v>
+        <v>534.8836236758152</v>
       </c>
       <c r="X7" t="n">
-        <v>536.4693346108807</v>
+        <v>300.8033014587983</v>
       </c>
       <c r="Y7" t="n">
-        <v>536.4693346108807</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1764.651327224354</v>
+        <v>1281.393958586371</v>
       </c>
       <c r="C8" t="n">
-        <v>1723.774581050991</v>
+        <v>888.2184570893016</v>
       </c>
       <c r="D8" t="n">
-        <v>1338.333452267659</v>
+        <v>502.7773283059694</v>
       </c>
       <c r="E8" t="n">
-        <v>935.7499273842031</v>
+        <v>502.7773283059694</v>
       </c>
       <c r="F8" t="n">
-        <v>518.8554889141809</v>
+        <v>85.88288983594714</v>
       </c>
       <c r="G8" t="n">
-        <v>509.7331374425881</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>358.4764287842802</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L8" t="n">
-        <v>851.7967205028091</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M8" t="n">
-        <v>1397.79762054739</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N8" t="n">
-        <v>1925.608904184852</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="P8" t="n">
         <v>2365.64850507718</v>
@@ -4834,22 +4834,22 @@
         <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2161.142036303753</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="V8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="W8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="X8" t="n">
-        <v>2161.142036303753</v>
+        <v>1681.888704297768</v>
       </c>
       <c r="Y8" t="n">
-        <v>1764.651327224354</v>
+        <v>1681.888704297768</v>
       </c>
     </row>
     <row r="9">
@@ -4859,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F9" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>480.1670983834974</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
         <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>1549.231189288413</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="N9" t="n">
-        <v>1549.231189288413</v>
+        <v>1443.506853769802</v>
       </c>
       <c r="O9" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360783</v>
       </c>
       <c r="P9" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4928,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="10">
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="C10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="D10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="E10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="F10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="G10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="H10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -4989,25 +4989,25 @@
         <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>948.7599926430961</v>
+        <v>745.9439088256454</v>
       </c>
       <c r="T10" t="n">
-        <v>741.0718417343005</v>
+        <v>510.2248569938795</v>
       </c>
       <c r="U10" t="n">
-        <v>455.6330499762015</v>
+        <v>224.7860652357804</v>
       </c>
       <c r="V10" t="n">
-        <v>455.6330499762015</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="W10" t="n">
-        <v>455.6330499762015</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="X10" t="n">
-        <v>455.6330499762015</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="Y10" t="n">
-        <v>232.5209887928449</v>
+        <v>77.69124027544166</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1320.171044252416</v>
+        <v>1625.725108676625</v>
       </c>
       <c r="C11" t="n">
-        <v>1021.936224042535</v>
+        <v>1327.490288466744</v>
       </c>
       <c r="D11" t="n">
-        <v>731.4357765463913</v>
+        <v>1036.9898409706</v>
       </c>
       <c r="E11" t="n">
-        <v>423.7929329501241</v>
+        <v>974.8337638784258</v>
       </c>
       <c r="F11" t="n">
-        <v>423.7929329501241</v>
+        <v>652.8800066955919</v>
       </c>
       <c r="G11" t="n">
-        <v>105.5708587253156</v>
+        <v>334.6579324707834</v>
       </c>
       <c r="H11" t="n">
         <v>105.5155633244624</v>
@@ -5123,22 +5123,22 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>1286.571845448837</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>2262.088962721623</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P12" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q12" t="n">
         <v>2380.454662679751</v>
@@ -5178,16 +5178,16 @@
         <v>493.0843669551006</v>
       </c>
       <c r="C13" t="n">
-        <v>417.8199303082781</v>
+        <v>417.8199303082782</v>
       </c>
       <c r="D13" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979813</v>
       </c>
       <c r="E13" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443721</v>
       </c>
       <c r="F13" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445333</v>
       </c>
       <c r="G13" t="n">
         <v>160.810741531167</v>
@@ -5211,10 +5211,10 @@
         <v>836.8050913469768</v>
       </c>
       <c r="N13" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O13" t="n">
-        <v>1368.80221587904</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P13" t="n">
         <v>1581.729743385193</v>
@@ -5238,13 +5238,13 @@
         <v>1039.052445966845</v>
       </c>
       <c r="W13" t="n">
-        <v>850.6627251852104</v>
+        <v>850.6627251852103</v>
       </c>
       <c r="X13" t="n">
-        <v>711.5230842553818</v>
+        <v>711.5230842553819</v>
       </c>
       <c r="Y13" t="n">
-        <v>583.3517043592135</v>
+        <v>583.3517043592136</v>
       </c>
     </row>
     <row r="14">
@@ -5254,25 +5254,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1596.229397996941</v>
+        <v>1827.815439560371</v>
       </c>
       <c r="C14" t="n">
-        <v>1297.99457778706</v>
+        <v>1529.58061935049</v>
       </c>
       <c r="D14" t="n">
-        <v>1007.494130290916</v>
+        <v>1239.080171854346</v>
       </c>
       <c r="E14" t="n">
-        <v>745.6913947321048</v>
+        <v>931.4373282580789</v>
       </c>
       <c r="F14" t="n">
-        <v>423.7376375492709</v>
+        <v>609.483571075245</v>
       </c>
       <c r="G14" t="n">
-        <v>105.5155633244624</v>
+        <v>291.2614968504365</v>
       </c>
       <c r="H14" t="n">
-        <v>105.5155633244624</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I14" t="n">
         <v>62.11912770411553</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T14" t="n">
-        <v>2905.82359028062</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U14" t="n">
-        <v>2745.011542002408</v>
+        <v>2958.144013530607</v>
       </c>
       <c r="V14" t="n">
-        <v>2497.845413993115</v>
+        <v>2710.977885521314</v>
       </c>
       <c r="W14" t="n">
-        <v>2497.845413993115</v>
+        <v>2434.91953177679</v>
       </c>
       <c r="X14" t="n">
-        <v>2203.33349021336</v>
+        <v>2434.91953177679</v>
       </c>
       <c r="Y14" t="n">
-        <v>1901.783462421149</v>
+        <v>2133.36950398458</v>
       </c>
     </row>
     <row r="15">
@@ -5360,22 +5360,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K15" t="n">
-        <v>84.60386270860994</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L15" t="n">
-        <v>568.1699486069232</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M15" t="n">
-        <v>568.1699486069232</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N15" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O15" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P15" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>493.0843669551003</v>
+        <v>493.0843669551004</v>
       </c>
       <c r="C16" t="n">
-        <v>417.8199303082779</v>
+        <v>417.819930308278</v>
       </c>
       <c r="D16" t="n">
-        <v>357.127498497981</v>
+        <v>357.1274984979811</v>
       </c>
       <c r="E16" t="n">
         <v>296.5093676443719</v>
       </c>
       <c r="F16" t="n">
-        <v>234.1241141445331</v>
+        <v>234.1241141445332</v>
       </c>
       <c r="G16" t="n">
         <v>160.810741531167</v>
@@ -5445,10 +5445,10 @@
         <v>557.4621512791394</v>
       </c>
       <c r="M16" t="n">
-        <v>836.8050913469767</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N16" t="n">
-        <v>1113.046087107759</v>
+        <v>1113.04608710776</v>
       </c>
       <c r="O16" t="n">
         <v>1368.802215879041</v>
@@ -5469,19 +5469,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U16" t="n">
-        <v>1210.091109858831</v>
+        <v>1210.091109858832</v>
       </c>
       <c r="V16" t="n">
-        <v>1039.052445966844</v>
+        <v>1039.052445966845</v>
       </c>
       <c r="W16" t="n">
-        <v>850.6627251852101</v>
+        <v>850.6627251852102</v>
       </c>
       <c r="X16" t="n">
-        <v>711.5230842553816</v>
+        <v>711.5230842553817</v>
       </c>
       <c r="Y16" t="n">
-        <v>583.3517043592133</v>
+        <v>583.3517043592134</v>
       </c>
     </row>
     <row r="17">
@@ -5500,16 +5500,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G17" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5542,7 +5542,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5551,16 +5551,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X17" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D19" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G19" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5676,49 +5676,49 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>273.010538436486</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>437.1381783102858</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>623.4297566485498</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>812.1990332879418</v>
+        <v>683.1426636655146</v>
       </c>
       <c r="O19" t="n">
-        <v>974.9038003296498</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P19" t="n">
-        <v>1094.779966106228</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S19" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="20">
@@ -5737,16 +5737,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E20" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G20" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5788,16 +5788,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="21">
@@ -5831,19 +5831,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K21" t="n">
-        <v>381.858273766342</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L21" t="n">
-        <v>865.4243596646552</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M21" t="n">
-        <v>1493.196009291336</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N21" t="n">
-        <v>2148.973980501895</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D22" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G22" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H22" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229987</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390485</v>
+        <v>149.5338114222417</v>
       </c>
       <c r="L22" t="n">
-        <v>435.0968109750514</v>
+        <v>442.71782091847</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133154</v>
+        <v>629.009399256734</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445246</v>
+        <v>812.1990332879432</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862326</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162811</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S22" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="23">
@@ -5977,13 +5977,13 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F23" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G23" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924217</v>
+        <v>68.77950792924226</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6025,7 +6025,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W23" t="n">
         <v>2405.467337224691</v>
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>2148.973980501895</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.931979188559</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369567</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D25" t="n">
-        <v>173.44722152188</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634911</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588725</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G25" t="n">
-        <v>87.3386307407266</v>
+        <v>87.33863074072679</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462911</v>
+        <v>63.5368163846292</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6156,43 +6156,43 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>621.3883893133154</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>804.5780233445246</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>967.2827903862326</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P25" t="n">
-        <v>1087.158956162811</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q25" t="n">
-        <v>1090.581152532862</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476279</v>
+        <v>1098.202162476281</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341237</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918799</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161894</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194221</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330083</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856983999</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974517</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1520.172595964104</v>
+        <v>1520.303839177572</v>
       </c>
       <c r="C26" t="n">
-        <v>1221.937775754223</v>
+        <v>1222.069018967691</v>
       </c>
       <c r="D26" t="n">
-        <v>931.4373282580789</v>
+        <v>931.5685714715474</v>
       </c>
       <c r="E26" t="n">
-        <v>931.4373282580789</v>
+        <v>623.9257278752804</v>
       </c>
       <c r="F26" t="n">
-        <v>609.483571075245</v>
+        <v>301.9719706924465</v>
       </c>
       <c r="G26" t="n">
         <v>291.2614968504365</v>
@@ -6226,19 +6226,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J26" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K26" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L26" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M26" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N26" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O26" t="n">
         <v>2572.923332933306</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>3034.383511434015</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2873.571463155803</v>
+        <v>2945.144336927563</v>
       </c>
       <c r="V26" t="n">
-        <v>2626.40533514651</v>
+        <v>2697.97820891827</v>
       </c>
       <c r="W26" t="n">
-        <v>2350.346981401985</v>
+        <v>2421.919855173746</v>
       </c>
       <c r="X26" t="n">
-        <v>2055.835057622231</v>
+        <v>2127.407931393991</v>
       </c>
       <c r="Y26" t="n">
-        <v>1825.726660388312</v>
+        <v>1825.857903601781</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1920.837450676059</v>
+        <v>493.0843669551002</v>
       </c>
       <c r="C28" t="n">
-        <v>1845.573014029237</v>
+        <v>417.8199303082778</v>
       </c>
       <c r="D28" t="n">
-        <v>1784.88058221894</v>
+        <v>357.1274984979808</v>
       </c>
       <c r="E28" t="n">
-        <v>1724.262451365331</v>
+        <v>296.5093676443717</v>
       </c>
       <c r="F28" t="n">
-        <v>1661.877197865492</v>
+        <v>234.124114144533</v>
       </c>
       <c r="G28" t="n">
-        <v>1588.563825252126</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H28" t="n">
-        <v>1528.025955500809</v>
+        <v>100.2728717798493</v>
       </c>
       <c r="I28" t="n">
-        <v>1489.872211425075</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J28" t="n">
-        <v>1553.149830557211</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K28" t="n">
-        <v>1728.036233396726</v>
+        <v>300.2831496757665</v>
       </c>
       <c r="L28" t="n">
-        <v>1985.215235000099</v>
+        <v>557.4621512791396</v>
       </c>
       <c r="M28" t="n">
-        <v>2264.558175067936</v>
+        <v>836.8050913469767</v>
       </c>
       <c r="N28" t="n">
-        <v>2540.799170828719</v>
+        <v>1113.046087107759</v>
       </c>
       <c r="O28" t="n">
-        <v>2796.5552996</v>
+        <v>1368.802215879041</v>
       </c>
       <c r="P28" t="n">
-        <v>3009.482827106152</v>
+        <v>1581.729743385192</v>
       </c>
       <c r="Q28" t="n">
-        <v>3105.956385205776</v>
+        <v>1678.203301484817</v>
       </c>
       <c r="R28" t="n">
-        <v>3076.996077125541</v>
+        <v>1649.242993404582</v>
       </c>
       <c r="S28" t="n">
-        <v>2969.120674595279</v>
+        <v>1541.36759087432</v>
       </c>
       <c r="T28" t="n">
-        <v>2828.342304050701</v>
+        <v>1400.589220329742</v>
       </c>
       <c r="U28" t="n">
-        <v>2637.84419357979</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V28" t="n">
-        <v>2466.805529687803</v>
+        <v>1039.052445966844</v>
       </c>
       <c r="W28" t="n">
-        <v>2278.415808906169</v>
+        <v>850.6627251852099</v>
       </c>
       <c r="X28" t="n">
-        <v>2139.27616797634</v>
+        <v>711.5230842553813</v>
       </c>
       <c r="Y28" t="n">
-        <v>2011.104788080172</v>
+        <v>583.351704359213</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1861.849096041464</v>
+        <v>1871.211875180717</v>
       </c>
       <c r="C29" t="n">
-        <v>1572.977054970837</v>
+        <v>1572.977054970836</v>
       </c>
       <c r="D29" t="n">
         <v>1282.476607474693</v>
       </c>
       <c r="E29" t="n">
-        <v>974.8337638784258</v>
+        <v>974.8337638784257</v>
       </c>
       <c r="F29" t="n">
-        <v>652.8800066955919</v>
+        <v>652.8800066955918</v>
       </c>
       <c r="G29" t="n">
-        <v>334.6579324707834</v>
+        <v>334.6579324707833</v>
       </c>
       <c r="H29" t="n">
-        <v>105.5155633244624</v>
+        <v>105.5155633244623</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6499,16 +6499,16 @@
         <v>2745.011542002408</v>
       </c>
       <c r="V29" t="n">
-        <v>2745.011542002408</v>
+        <v>2497.845413993115</v>
       </c>
       <c r="W29" t="n">
-        <v>2468.953188257884</v>
+        <v>2221.78706024859</v>
       </c>
       <c r="X29" t="n">
-        <v>2468.953188257884</v>
+        <v>1927.275136468836</v>
       </c>
       <c r="Y29" t="n">
-        <v>2167.403160465673</v>
+        <v>1927.275136468836</v>
       </c>
     </row>
     <row r="30">
@@ -6542,25 +6542,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N30" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6603,16 +6603,16 @@
         <v>417.8199303082779</v>
       </c>
       <c r="D31" t="n">
-        <v>357.1274984979811</v>
+        <v>357.1274984979809</v>
       </c>
       <c r="E31" t="n">
-        <v>296.5093676443719</v>
+        <v>296.5093676443718</v>
       </c>
       <c r="F31" t="n">
-        <v>234.1241141445332</v>
+        <v>234.1241141445331</v>
       </c>
       <c r="G31" t="n">
-        <v>160.810741531167</v>
+        <v>160.8107415311669</v>
       </c>
       <c r="H31" t="n">
         <v>100.2728717798493</v>
@@ -6621,7 +6621,7 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>125.3967468362513</v>
+        <v>125.3967468362514</v>
       </c>
       <c r="K31" t="n">
         <v>300.2831496757665</v>
@@ -6630,7 +6630,7 @@
         <v>557.4621512791396</v>
       </c>
       <c r="M31" t="n">
-        <v>836.8050913469768</v>
+        <v>836.805091346977</v>
       </c>
       <c r="N31" t="n">
         <v>1113.04608710776</v>
@@ -6639,7 +6639,7 @@
         <v>1368.802215879041</v>
       </c>
       <c r="P31" t="n">
-        <v>1581.729743385192</v>
+        <v>1581.729743385193</v>
       </c>
       <c r="Q31" t="n">
         <v>1678.203301484817</v>
@@ -6654,19 +6654,19 @@
         <v>1400.589220329742</v>
       </c>
       <c r="U31" t="n">
-        <v>1210.091109858832</v>
+        <v>1210.091109858831</v>
       </c>
       <c r="V31" t="n">
         <v>1039.052445966844</v>
       </c>
       <c r="W31" t="n">
-        <v>850.6627251852102</v>
+        <v>850.6627251852101</v>
       </c>
       <c r="X31" t="n">
-        <v>711.5230842553817</v>
+        <v>711.5230842553815</v>
       </c>
       <c r="Y31" t="n">
-        <v>583.3517043592134</v>
+        <v>583.3517043592133</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>261.1858216803431</v>
       </c>
       <c r="H32" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924219</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6779,19 +6779,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>62.11912770411553</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>689.8907773307967</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1345.668748541356</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
         <v>1740.468202408463</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C34" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D34" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E34" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F34" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G34" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H34" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I34" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2075.452993041795</v>
+        <v>161.4017547291066</v>
       </c>
       <c r="K34" t="n">
-        <v>2157.288034151737</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L34" t="n">
-        <v>2321.415674025537</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M34" t="n">
-        <v>2507.707252363801</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N34" t="n">
-        <v>2690.89688639501</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O34" t="n">
-        <v>2853.601653436718</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P34" t="n">
-        <v>2973.477819213297</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S34" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T34" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U34" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V34" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W34" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X34" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y34" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="35">
@@ -6934,7 +6934,7 @@
         <v>68.77950792924223</v>
       </c>
       <c r="I35" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J35" t="n">
         <v>206.7689006129436</v>
@@ -6955,7 +6955,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P35" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q35" t="n">
         <v>3105.956385205776</v>
@@ -6964,10 +6964,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T35" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U35" t="n">
         <v>2855.219708188068</v>
@@ -6976,13 +6976,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y35" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>1107.359996292367</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>1590.92608219068</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1590.92608219068</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
-        <v>1949.449642343508</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>2465.969924934489</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>2871.591293650886</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072671</v>
       </c>
       <c r="H37" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462916</v>
       </c>
       <c r="I37" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J37" t="n">
-        <v>2169.155977458603</v>
+        <v>67.69877031229905</v>
       </c>
       <c r="K37" t="n">
-        <v>2250.991018568544</v>
+        <v>149.5338114222409</v>
       </c>
       <c r="L37" t="n">
-        <v>2415.118658442344</v>
+        <v>313.6614512960407</v>
       </c>
       <c r="M37" t="n">
-        <v>2636.763621986229</v>
+        <v>499.9530296343048</v>
       </c>
       <c r="N37" t="n">
-        <v>2819.953256017438</v>
+        <v>683.142663665514</v>
       </c>
       <c r="O37" t="n">
-        <v>2982.658023059147</v>
+        <v>845.8474307072221</v>
       </c>
       <c r="P37" t="n">
-        <v>3102.534188835725</v>
+        <v>965.7235964838006</v>
       </c>
       <c r="Q37" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R37" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>2777.012667845686</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>2297.217483926948</v>
+        <v>289.4632611974522</v>
       </c>
     </row>
     <row r="38">
@@ -7150,28 +7150,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414177</v>
+        <v>1614.059487414176</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599516</v>
+        <v>1352.560722599515</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975447</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099309</v>
       </c>
       <c r="G38" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.7795079292422</v>
       </c>
       <c r="I38" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J38" t="n">
         <v>206.7689006129436</v>
@@ -7192,7 +7192,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P38" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q38" t="n">
         <v>3105.956385205776</v>
@@ -7204,19 +7204,19 @@
         <v>3071.119566829235</v>
       </c>
       <c r="T38" t="n">
-        <v>2979.295701071061</v>
+        <v>2979.29570107106</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188068</v>
+        <v>2855.219708188067</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y38" t="n">
         <v>1882.877496443165</v>
@@ -7250,25 +7250,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I39" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M39" t="n">
-        <v>973.7913173233209</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N39" t="n">
-        <v>1629.56928853388</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
         <v>2146.089571124861</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2243.686201918055</v>
+        <v>235.9319791885592</v>
       </c>
       <c r="C40" t="n">
-        <v>2205.157820666453</v>
+        <v>197.4035979369569</v>
       </c>
       <c r="D40" t="n">
-        <v>2181.201444251376</v>
+        <v>173.4472215218802</v>
       </c>
       <c r="E40" t="n">
-        <v>2157.319368792987</v>
+        <v>149.5651460634912</v>
       </c>
       <c r="F40" t="n">
-        <v>2131.670170688369</v>
+        <v>123.9159479588726</v>
       </c>
       <c r="G40" t="n">
-        <v>2095.092853470223</v>
+        <v>87.33863074072666</v>
       </c>
       <c r="H40" t="n">
-        <v>2071.291039114125</v>
+        <v>63.53681638462913</v>
       </c>
       <c r="I40" t="n">
-        <v>2069.873350433611</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J40" t="n">
-        <v>2169.155977458603</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K40" t="n">
-        <v>2250.991018568544</v>
+        <v>273.0105384364859</v>
       </c>
       <c r="L40" t="n">
-        <v>2415.118658442344</v>
+        <v>437.1381783102858</v>
       </c>
       <c r="M40" t="n">
-        <v>2601.410236780608</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S40" t="n">
-        <v>3034.817038070734</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T40" t="n">
-        <v>2930.774722921377</v>
+        <v>923.0205001918803</v>
       </c>
       <c r="U40" t="n">
-        <v>2777.012667845686</v>
+        <v>769.2584451161897</v>
       </c>
       <c r="V40" t="n">
-        <v>2642.710059348919</v>
+        <v>634.9558366194224</v>
       </c>
       <c r="W40" t="n">
-        <v>2491.056393962505</v>
+        <v>483.3021712330085</v>
       </c>
       <c r="X40" t="n">
-        <v>2388.652808427897</v>
+        <v>380.8985856984001</v>
       </c>
       <c r="Y40" t="n">
-        <v>2297.217483926948</v>
+        <v>289.463261197452</v>
       </c>
     </row>
     <row r="41">
@@ -7387,31 +7387,31 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1761.95890125351</v>
+        <v>1848.355751985669</v>
       </c>
       <c r="C41" t="n">
-        <v>1443.742515173777</v>
+        <v>1530.139365905936</v>
       </c>
       <c r="D41" t="n">
-        <v>1133.260501807781</v>
+        <v>1219.65735253994</v>
       </c>
       <c r="E41" t="n">
-        <v>805.6360923416614</v>
+        <v>892.0329430738204</v>
       </c>
       <c r="F41" t="n">
-        <v>463.7007692889753</v>
+        <v>550.0976200211344</v>
       </c>
       <c r="G41" t="n">
-        <v>125.4971291943146</v>
+        <v>211.8939799264738</v>
       </c>
       <c r="H41" t="n">
-        <v>125.4971291943146</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7429,7 +7429,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
         <v>3105.956385205776</v>
@@ -7438,25 +7438,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>3014.401945564163</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T41" t="n">
-        <v>2865.860458540916</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U41" t="n">
-        <v>2685.06684439285</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V41" t="n">
-        <v>2685.06684439285</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W41" t="n">
-        <v>2409.026125209633</v>
+        <v>2809.9164655914</v>
       </c>
       <c r="X41" t="n">
-        <v>2409.026125209633</v>
+        <v>2495.422975941793</v>
       </c>
       <c r="Y41" t="n">
-        <v>2087.494531547571</v>
+        <v>2173.89138227973</v>
       </c>
     </row>
     <row r="42">
@@ -7487,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
       </c>
       <c r="K42" t="n">
-        <v>175.2341099238429</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L42" t="n">
-        <v>658.8001958221562</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1286.571845448837</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>632.9553280440657</v>
+        <v>238.0391279009392</v>
       </c>
       <c r="C43" t="n">
-        <v>537.709325527391</v>
+        <v>142.7931253842646</v>
       </c>
       <c r="D43" t="n">
-        <v>457.0353278472419</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E43" t="n">
-        <v>376.4356311237806</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F43" t="n">
-        <v>294.0688117540897</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G43" t="n">
-        <v>200.7738732708714</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H43" t="n">
-        <v>120.2544376497015</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J43" t="n">
         <v>105.8128141272092</v>
       </c>
       <c r="K43" t="n">
-        <v>261.1152842576822</v>
+        <v>261.1152842576823</v>
       </c>
       <c r="L43" t="n">
-        <v>498.7103531520132</v>
+        <v>498.7103531520133</v>
       </c>
       <c r="M43" t="n">
-        <v>758.4693605108084</v>
+        <v>758.4693605108087</v>
       </c>
       <c r="N43" t="n">
         <v>1015.126423562549</v>
@@ -7596,25 +7596,25 @@
         <v>1472.589965862393</v>
       </c>
       <c r="S43" t="n">
-        <v>1472.589965862393</v>
+        <v>1426.193312909124</v>
       </c>
       <c r="T43" t="n">
-        <v>1311.830029447963</v>
+        <v>1265.433376494694</v>
       </c>
       <c r="U43" t="n">
-        <v>1101.3503531072</v>
+        <v>1054.953700153931</v>
       </c>
       <c r="V43" t="n">
-        <v>910.3301233453606</v>
+        <v>863.9334703920917</v>
       </c>
       <c r="W43" t="n">
-        <v>902.3254381177117</v>
+        <v>655.5621837406055</v>
       </c>
       <c r="X43" t="n">
-        <v>743.2042313180309</v>
+        <v>496.4409769409248</v>
       </c>
       <c r="Y43" t="n">
-        <v>743.2042313180309</v>
+        <v>348.2880311749043</v>
       </c>
     </row>
     <row r="44">
@@ -7624,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1891.902076878879</v>
+        <v>1581.208058106523</v>
       </c>
       <c r="C44" t="n">
-        <v>1692.86645018995</v>
+        <v>1262.99167202679</v>
       </c>
       <c r="D44" t="n">
-        <v>1382.384436823954</v>
+        <v>952.509658660794</v>
       </c>
       <c r="E44" t="n">
-        <v>1054.760027357835</v>
+        <v>624.8852491946748</v>
       </c>
       <c r="F44" t="n">
-        <v>712.8247043051484</v>
+        <v>400.3227677987761</v>
       </c>
       <c r="G44" t="n">
-        <v>374.6210642104878</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H44" t="n">
-        <v>125.4971291943146</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7666,7 +7666,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q44" t="n">
         <v>3105.956385205776</v>
@@ -7678,22 +7678,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2957.414898182529</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2776.621284034464</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2509.473590155318</v>
+        <v>2838.80869132663</v>
       </c>
       <c r="W44" t="n">
-        <v>2213.433670540942</v>
+        <v>2542.768771712254</v>
       </c>
       <c r="X44" t="n">
-        <v>2213.433670540942</v>
+        <v>2228.275282062647</v>
       </c>
       <c r="Y44" t="n">
-        <v>1891.902076878879</v>
+        <v>1906.743688400584</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J45" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K45" t="n">
-        <v>174.7633905351325</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="L45" t="n">
-        <v>174.7633905351325</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>802.5350401618138</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O45" t="n">
-        <v>1974.833293963354</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P45" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q45" t="n">
         <v>2380.454662679751</v>
@@ -7782,40 +7782,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>574.1018682937598</v>
+        <v>494.1460204183304</v>
       </c>
       <c r="C46" t="n">
-        <v>478.8558657770852</v>
+        <v>398.9000179016558</v>
       </c>
       <c r="D46" t="n">
-        <v>398.1818680969361</v>
+        <v>398.9000179016558</v>
       </c>
       <c r="E46" t="n">
-        <v>317.5821713734747</v>
+        <v>318.3003211781945</v>
       </c>
       <c r="F46" t="n">
-        <v>235.2153520037838</v>
+        <v>235.9335018085036</v>
       </c>
       <c r="G46" t="n">
-        <v>141.9204135205655</v>
+        <v>142.6385633252854</v>
       </c>
       <c r="H46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I46" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J46" t="n">
         <v>105.8128141272092</v>
       </c>
       <c r="K46" t="n">
-        <v>261.1152842576822</v>
+        <v>261.1152842576823</v>
       </c>
       <c r="L46" t="n">
-        <v>498.7103531520132</v>
+        <v>498.7103531520133</v>
       </c>
       <c r="M46" t="n">
-        <v>758.4693605108084</v>
+        <v>758.4693605108087</v>
       </c>
       <c r="N46" t="n">
         <v>1015.126423562549</v>
@@ -7830,28 +7830,28 @@
         <v>1521.53183981248</v>
       </c>
       <c r="R46" t="n">
-        <v>1472.589965862393</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="S46" t="n">
-        <v>1344.732997462278</v>
+        <v>1521.53183981248</v>
       </c>
       <c r="T46" t="n">
-        <v>1183.973061047849</v>
+        <v>1360.77190339805</v>
       </c>
       <c r="U46" t="n">
-        <v>973.4933847070857</v>
+        <v>1150.292227057288</v>
       </c>
       <c r="V46" t="n">
-        <v>782.4731549452461</v>
+        <v>960.9191561098022</v>
       </c>
       <c r="W46" t="n">
-        <v>574.1018682937598</v>
+        <v>752.547869458316</v>
       </c>
       <c r="X46" t="n">
-        <v>574.1018682937598</v>
+        <v>752.547869458316</v>
       </c>
       <c r="Y46" t="n">
-        <v>574.1018682937598</v>
+        <v>604.3949236922955</v>
       </c>
     </row>
   </sheetData>
@@ -7987,16 +7987,16 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>599.6082218521052</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>487.848403846783</v>
       </c>
       <c r="O2" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>144.4986984183922</v>
@@ -8057,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>621.5900809302183</v>
+        <v>683.7992483186069</v>
       </c>
       <c r="N3" t="n">
         <v>676.7842391234617</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>167.9390098072631</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8224,13 +8224,13 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>506.8283140129063</v>
+        <v>701.2411122488187</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
@@ -8294,13 +8294,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>238.3374974274113</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>165.3117977752924</v>
       </c>
       <c r="M6" t="n">
         <v>683.7992483186069</v>
@@ -8309,13 +8309,13 @@
         <v>676.7842391234617</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8452,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8467,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>400.3730943507992</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8540,19 +8540,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>577.0069902189997</v>
       </c>
       <c r="N9" t="n">
         <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
-        <v>270.9005442600792</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8707,7 +8707,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q11" t="n">
         <v>331.2113854294513</v>
@@ -8771,7 +8771,7 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8780,16 +8780,16 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>431.8341765764318</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>212.2488719779076</v>
       </c>
       <c r="P12" t="n">
         <v>87.08336481931465</v>
       </c>
       <c r="Q12" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -9008,13 +9008,13 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K15" t="n">
-        <v>112.3087888732267</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M15" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9026,7 +9026,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9418,7 +9418,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P20" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
         <v>331.2113854294513</v>
@@ -9479,10 +9479,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
@@ -9494,7 +9494,7 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>87.08336481931465</v>
@@ -9716,7 +9716,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9725,19 +9725,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O24" t="n">
-        <v>326.5064297756122</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,22 +10427,22 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
-        <v>491.4748860273814</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
         <v>496.801919078302</v>
@@ -10664,7 +10664,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
@@ -10673,10 +10673,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>447.5171231095479</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10901,25 +10901,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M39" t="n">
-        <v>524.8175298481927</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
         <v>327.7205688679246</v>
@@ -11141,16 +11141,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N42" t="n">
-        <v>258.8480380294549</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11159,7 +11159,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11375,13 +11375,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>196.2265410010273</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
@@ -11390,13 +11390,13 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
-        <v>614.4252180716981</v>
+        <v>412.7428484698906</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q45" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23266,16 +23266,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>243.031898839052</v>
       </c>
       <c r="F11" t="n">
-        <v>318.7342196110055</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>226.796203008013</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23503,7 +23503,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>45.38170695708163</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23512,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>226.8509454548578</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>127.274321941861</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>12.86967983701379</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>273.2977702070789</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>291.5668045419573</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>8.668621376273222e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>304.4364843789705</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>70.72721425270947</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -24679,10 +24679,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>246.9958951047295</v>
       </c>
       <c r="C29" t="n">
-        <v>9.269151347861168</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24739,16 +24739,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>244.6944667292003</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>291.5668045419573</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>298.5345275142884</v>
       </c>
     </row>
     <row r="30">
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>246.6326956660114</v>
+        <v>98.35559196587676</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>62.744221475297</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,22 +25678,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>90.63889524519712</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>147.0560721530147</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>178.9856780065845</v>
       </c>
       <c r="V41" t="n">
         <v>264.476216940354</v>
       </c>
       <c r="W41" t="n">
-        <v>19.79920842684794</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>311.3485547531109</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>79.79369975622669</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>81.54315117599396</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>92.36198909838609</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>79.71424126495813</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>57.55395684613006</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>126.5783987161133</v>
+        <v>80.6457122923765</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>198.3629354095989</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6714163083603</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25864,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>322.2802739911201</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>117.9889517968961</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>116.1991132402195</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>246.6326956660114</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>62.744221475297</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,13 +25915,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>90.63889524519716</v>
+        <v>90.63889524519712</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>147.0560721530147</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>178.9856780065845</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25930,7 +25930,7 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>311.3485547531109</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.1464142412255</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>79.86725770334758</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0.7109683066727399</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>57.55395684613011</v>
+        <v>57.55395684613006</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>48.45245521058598</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>126.5783987161133</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>1.630687226210654</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>157.5299947316839</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6714163083603</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>521332.6610418713</v>
+        <v>521332.6610418714</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>521332.6610418714</v>
+        <v>521332.6610418713</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>521332.6610418714</v>
+        <v>521332.6610418715</v>
       </c>
     </row>
     <row r="12">
@@ -26316,43 +26316,43 @@
         <v>721328.7123734271</v>
       </c>
       <c r="C2" t="n">
-        <v>721328.7123734269</v>
+        <v>721328.712373427</v>
       </c>
       <c r="D2" t="n">
-        <v>721328.7123734266</v>
+        <v>721328.7123734271</v>
       </c>
       <c r="E2" t="n">
-        <v>677904.490732954</v>
+        <v>677904.4907329539</v>
       </c>
       <c r="F2" t="n">
-        <v>677904.4907329542</v>
+        <v>677904.4907329538</v>
       </c>
       <c r="G2" t="n">
+        <v>721328.7123734273</v>
+      </c>
+      <c r="H2" t="n">
         <v>721328.7123734272</v>
       </c>
-      <c r="H2" t="n">
-        <v>721328.7123734273</v>
-      </c>
       <c r="I2" t="n">
-        <v>721328.7123734275</v>
+        <v>721328.7123734268</v>
       </c>
       <c r="J2" t="n">
+        <v>677904.4907329533</v>
+      </c>
+      <c r="K2" t="n">
         <v>677904.4907329524</v>
-      </c>
-      <c r="K2" t="n">
-        <v>677904.490732954</v>
       </c>
       <c r="L2" t="n">
         <v>721328.7123734273</v>
       </c>
       <c r="M2" t="n">
-        <v>721328.7123734275</v>
+        <v>721328.7123734265</v>
       </c>
       <c r="N2" t="n">
-        <v>721328.7123734276</v>
+        <v>721328.7123734265</v>
       </c>
       <c r="O2" t="n">
-        <v>642966.3749704182</v>
+        <v>642966.3749704181</v>
       </c>
       <c r="P2" t="n">
         <v>642966.3749704182</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>29094.95587301438</v>
+        <v>29094.95587301433</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>200837.4980720422</v>
+        <v>200837.4980720423</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>58189.91174602874</v>
+        <v>58189.91174602866</v>
       </c>
       <c r="M3" t="n">
-        <v>46121.92123989166</v>
+        <v>46121.92123989164</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>1177.707664501488</v>
+        <v>1177.707664501576</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26432,13 +26432,13 @@
         <v>110143.3843639945</v>
       </c>
       <c r="G4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="H4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="I4" t="n">
-        <v>134747.7050074765</v>
+        <v>134747.7050074764</v>
       </c>
       <c r="J4" t="n">
         <v>110143.3843639945</v>
@@ -26456,10 +26456,10 @@
         <v>134747.7050074764</v>
       </c>
       <c r="O4" t="n">
-        <v>90153.02127971008</v>
+        <v>90153.02127971011</v>
       </c>
       <c r="P4" t="n">
-        <v>90153.02127971008</v>
+        <v>90153.02127971011</v>
       </c>
     </row>
     <row r="5">
@@ -26502,16 +26502,16 @@
         <v>58169.76931551966</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551965</v>
       </c>
       <c r="O5" t="n">
-        <v>53449.25755040763</v>
+        <v>53449.25755040762</v>
       </c>
       <c r="P5" t="n">
-        <v>53449.25755040763</v>
+        <v>53449.25755040762</v>
       </c>
     </row>
     <row r="6">
@@ -26524,46 +26524,46 @@
         <v>287755.3987872275</v>
       </c>
       <c r="C6" t="n">
-        <v>485951.2047789722</v>
+        <v>485951.2047789723</v>
       </c>
       <c r="D6" t="n">
-        <v>485951.204778972</v>
+        <v>485951.2047789724</v>
       </c>
       <c r="E6" t="n">
-        <v>382195.8857223383</v>
+        <v>382087.3251682369</v>
       </c>
       <c r="F6" t="n">
-        <v>512648.8168600507</v>
+        <v>512540.256305949</v>
       </c>
       <c r="G6" t="n">
-        <v>499316.2821774167</v>
+        <v>499316.282177417</v>
       </c>
       <c r="H6" t="n">
         <v>528411.2380504312</v>
       </c>
       <c r="I6" t="n">
-        <v>528411.2380504314</v>
+        <v>528411.2380504308</v>
       </c>
       <c r="J6" t="n">
-        <v>311811.3187880066</v>
+        <v>311702.7582339062</v>
       </c>
       <c r="K6" t="n">
-        <v>512648.8168600504</v>
+        <v>512540.2563059476</v>
       </c>
       <c r="L6" t="n">
         <v>470221.3263044026</v>
       </c>
       <c r="M6" t="n">
-        <v>482289.3168105397</v>
+        <v>482289.3168105387</v>
       </c>
       <c r="N6" t="n">
-        <v>528411.2380504315</v>
+        <v>528411.2380504305</v>
       </c>
       <c r="O6" t="n">
-        <v>498186.388475799</v>
+        <v>497990.4826322912</v>
       </c>
       <c r="P6" t="n">
-        <v>499364.0961403004</v>
+        <v>499168.1902967929</v>
       </c>
     </row>
   </sheetData>
@@ -26697,7 +26697,7 @@
         <v>93.99127447431644</v>
       </c>
       <c r="F2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26709,10 +26709,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L2" t="n">
         <v>130.3599693155844</v>
@@ -26724,10 +26724,10 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="P2" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
     </row>
     <row r="3">
@@ -26822,16 +26822,16 @@
         <v>776.4890963014441</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="N4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="P4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
     </row>
   </sheetData>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>36.36869484126798</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26931,22 +26931,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>57.62257963304846</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>72.73738968253592</v>
+        <v>72.73738968253582</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>1.47213458062686</v>
+        <v>1.47213458062697</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692952</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>185.076970032149</v>
+        <v>185.0769700321489</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>36.36869484126798</v>
+        <v>36.36869484126791</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>57.62257963304846</v>
+        <v>57.62257963304856</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>160.5123041136134</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>330.6617540898175</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>385.5580790162737</v>
@@ -27539,7 +27539,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>154.0767819665104</v>
@@ -27557,10 +27557,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>168.094715410935</v>
       </c>
       <c r="U4" t="n">
         <v>282.5844038405181</v>
@@ -27599,13 +27599,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>55.73777359351584</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27615,16 +27615,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>72.56452256134139</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -27666,25 +27666,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>194.4180866168721</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,7 +27776,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
@@ -27791,10 +27791,10 @@
         <v>166.5715133615489</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27833,16 +27833,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>134.0790444979101</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>86.89131927033745</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>348.7757677704693</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>370.8469074198173</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
@@ -27921,7 +27921,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
         <v>168.5030667546707</v>
@@ -28034,7 +28034,7 @@
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>27.75059191374058</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>117.6956750166486</v>
       </c>
       <c r="W10" t="n">
         <v>280.4970980481341</v>
@@ -28079,7 +28079,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28326,28 +28326,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28377,25 +28377,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y14" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="15">
@@ -28484,76 +28484,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Q16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="17">
@@ -28748,19 +28748,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>0</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="n">
+        <v>5.63600263452949</v>
+      </c>
+      <c r="O19" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="n">
-        <v>5.636002634528126</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -28982,14 +28982,14 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>35.71049010668871</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>28.01250026485164</v>
-      </c>
       <c r="M22" t="n">
         <v>0</v>
       </c>
@@ -29006,7 +29006,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29228,22 +29228,22 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>128.297982108277</v>
+        <v>0</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29274,28 +29274,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29511,28 +29511,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431644</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="32">
@@ -29930,13 +29930,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J34" t="n">
-        <v>35.71049010668816</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>35.71049010668821</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -29951,7 +29951,7 @@
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
         <v>122.6619794737488</v>
@@ -30167,28 +30167,28 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>35.71049010668789</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>0</v>
+      </c>
+      <c r="P37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q37" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>35.71049010668816</v>
-      </c>
-      <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
-        <v>0</v>
       </c>
       <c r="R37" t="n">
         <v>122.6619794737488</v>
@@ -30404,11 +30404,11 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K40" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
@@ -30416,7 +30416,7 @@
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>35.71049010668801</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -30428,7 +30428,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082774</v>
       </c>
       <c r="S40" t="n">
         <v>130.3599693155844</v>
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="C41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="D41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="E41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="F41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="G41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="H41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="I41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="T41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="U41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="V41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="W41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="X41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="Y41" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
     </row>
     <row r="42">
@@ -30617,76 +30617,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="C43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="D43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="E43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="F43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="G43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="H43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="I43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="J43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="K43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="L43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="M43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="N43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="O43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="P43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="R43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="S43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="T43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="U43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="V43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="W43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="X43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="Y43" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
     </row>
     <row r="44">
@@ -30696,28 +30696,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="C44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="D44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="E44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="F44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="G44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="H44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="I44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30747,25 +30747,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="T44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="U44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="V44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="W44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="X44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="Y44" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
     </row>
     <row r="45">
@@ -30854,76 +30854,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="C46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="D46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="E46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="F46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="G46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="H46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="I46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="J46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="K46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="L46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="M46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="N46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="O46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="P46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="R46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="S46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="T46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="U46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="V46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="W46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="X46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
       <c r="Y46" t="n">
-        <v>74.20952426316278</v>
+        <v>74.20952426316282</v>
       </c>
     </row>
   </sheetData>
@@ -34707,16 +34707,16 @@
         <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>449.8831702543779</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>338.7299125089989</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>529.2029588809064</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="N3" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>75.25145091837423</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34944,13 +34944,13 @@
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>357.103262415179</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -35014,13 +35014,13 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>148.740562094078</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>75.25145091837418</v>
       </c>
       <c r="M6" t="n">
         <v>591.4121262692951</v>
@@ -35029,13 +35029,13 @@
         <v>591.4121262692951</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35172,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35187,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>250.071647109874</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35260,19 +35260,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>484.6198681696878</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>178.2129853711903</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35427,7 +35427,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q11" t="n">
         <v>186.7126870110591</v>
@@ -35491,7 +35491,7 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35500,16 +35500,16 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>346.4620637222652</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>119.5613130890187</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35658,7 +35658,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N14" t="n">
-        <v>533.1427107449113</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
         <v>444.4844453457863</v>
@@ -35728,13 +35728,13 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>22.71185353989334</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35746,7 +35746,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,19 +35804,19 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K16" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L16" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M16" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N16" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O16" t="n">
         <v>258.3395240113953</v>
@@ -35825,7 +35825,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q16" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,7 +36044,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L19" t="n">
         <v>165.78549482202</v>
@@ -36053,10 +36053,10 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N19" t="n">
-        <v>190.6760370094869</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
         <v>121.0870361379582</v>
@@ -36138,7 +36138,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P20" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
         <v>186.7126870110591</v>
@@ -36199,10 +36199,10 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
@@ -36214,7 +36214,7 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,13 +36278,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434254</v>
+        <v>5.63600263452964</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
-        <v>193.7979950868716</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M22" t="n">
         <v>188.1733114527919</v>
@@ -36302,7 +36302,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835636</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36445,19 +36445,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>233.8188708867233</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36524,22 +36524,22 @@
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>316.4712935610689</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O25" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716083</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>7.697989841835636</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36673,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
@@ -36694,7 +36694,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36773,7 +36773,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,19 +36989,19 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215737</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L31" t="n">
-        <v>259.7767692963364</v>
+        <v>259.7767692963365</v>
       </c>
       <c r="M31" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N31" t="n">
-        <v>279.0313088492752</v>
+        <v>279.0313088492753</v>
       </c>
       <c r="O31" t="n">
         <v>258.3395240113953</v>
@@ -37010,7 +37010,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446892</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,22 +37147,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7873271384925</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
         <v>409.7185542589873</v>
@@ -37226,13 +37226,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>5.636002634529095</v>
+        <v>100.2854818434253</v>
       </c>
       <c r="K34" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>165.78549482202</v>
+        <v>201.4959849287082</v>
       </c>
       <c r="M34" t="n">
         <v>188.1733114527919</v>
@@ -37247,7 +37247,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q34" t="n">
-        <v>133.8167333257369</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
@@ -37393,10 +37393,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>362.1450102553813</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634528815</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37472,7 +37472,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M37" t="n">
-        <v>223.8838015594801</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
@@ -37484,7 +37484,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q37" t="n">
-        <v>3.456764010152483</v>
+        <v>133.8167333257369</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37557,7 +37557,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O38" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457864</v>
       </c>
       <c r="P38" t="n">
         <v>351.7045375065877</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>432.4304077988809</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
         <v>236.7324157120106</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37712,7 +37712,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
-        <v>220.7505244816468</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
         <v>164.3482495370789</v>
@@ -37724,7 +37724,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>5.636002634528635</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37797,7 +37797,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P41" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
         <v>186.7126870110591</v>
@@ -37861,16 +37861,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N42" t="n">
-        <v>173.4759251752883</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37879,7 +37879,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>44.13503679100371</v>
+        <v>44.13503679100375</v>
       </c>
       <c r="K43" t="n">
         <v>156.8711819499728</v>
@@ -37946,19 +37946,19 @@
         <v>239.9950190851828</v>
       </c>
       <c r="M43" t="n">
-        <v>262.3828357159547</v>
+        <v>262.3828357159548</v>
       </c>
       <c r="N43" t="n">
         <v>259.2495586381216</v>
       </c>
       <c r="O43" t="n">
-        <v>238.5577738002416</v>
+        <v>238.5577738002417</v>
       </c>
       <c r="P43" t="n">
-        <v>195.2965604011209</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q43" t="n">
-        <v>77.66628827331526</v>
+        <v>77.6662882733153</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38095,13 +38095,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>113.782083667694</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
@@ -38110,13 +38110,13 @@
         <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
-        <v>521.7376591828091</v>
+        <v>320.0552895810017</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>44.13503679100371</v>
+        <v>44.13503679100375</v>
       </c>
       <c r="K46" t="n">
         <v>156.8711819499728</v>
@@ -38183,19 +38183,19 @@
         <v>239.9950190851828</v>
       </c>
       <c r="M46" t="n">
-        <v>262.3828357159547</v>
+        <v>262.3828357159548</v>
       </c>
       <c r="N46" t="n">
         <v>259.2495586381216</v>
       </c>
       <c r="O46" t="n">
-        <v>238.5577738002416</v>
+        <v>238.5577738002417</v>
       </c>
       <c r="P46" t="n">
-        <v>195.2965604011209</v>
+        <v>195.296560401121</v>
       </c>
       <c r="Q46" t="n">
-        <v>77.66628827331526</v>
+        <v>77.6662882733153</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
